--- a/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/TurnoverImportForAggregated.xlsx
+++ b/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/TurnoverImportForAggregated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johan/src/estatio-ecp/estatio/estatioapp/app/src/main/java/org/estatio/module/turnover/fixtures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johan/src/estatio-ecp/estatio/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABFF209-12A1-714A-873D-23627FDDAE8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E668C5BF-F11A-1542-BAFE-335A2B930AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32940" windowHeight="17900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="33820" windowHeight="20300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TurnoverImport" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="30">
   <si>
     <t>OXF-001</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>OXF-TOPMODEL-3</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>yyy</t>
+  </si>
+  <si>
+    <t>zzz</t>
   </si>
 </sst>
 </file>
@@ -754,7 +763,7 @@
   <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1666,6 +1675,9 @@
       <c r="J26" s="6">
         <v>0</v>
       </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
       <c r="L26" t="s">
         <v>3</v>
       </c>
@@ -1753,6 +1765,9 @@
       <c r="J29" s="6">
         <v>970</v>
       </c>
+      <c r="K29" t="s">
+        <v>28</v>
+      </c>
       <c r="L29" t="s">
         <v>3</v>
       </c>
@@ -2042,6 +2057,9 @@
       </c>
       <c r="J39" s="6">
         <v>532</v>
+      </c>
+      <c r="K39" t="s">
+        <v>29</v>
       </c>
       <c r="L39" t="s">
         <v>3</v>

--- a/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/TurnoverImportForAggregated.xlsx
+++ b/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/TurnoverImportForAggregated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johan/src/estatio-ecp/estatio/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E668C5BF-F11A-1542-BAFE-335A2B930AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB6AD13-7AD8-6940-9F53-2F3CCB384569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="460" windowWidth="33820" windowHeight="20300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="31">
   <si>
     <t>OXF-001</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>zzz</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -763,7 +766,7 @@
   <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1444,6 +1447,9 @@
       <c r="J18" s="6">
         <v>120</v>
       </c>
+      <c r="K18" t="s">
+        <v>30</v>
+      </c>
       <c r="L18" t="s">
         <v>3</v>
       </c>

--- a/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/TurnoverImportForAggregated.xlsx
+++ b/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/TurnoverImportForAggregated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johan/src/estatio-ecp/estatio/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB6AD13-7AD8-6940-9F53-2F3CCB384569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68307463-E30D-7B41-9AD5-949CA525EA62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="33820" windowHeight="20300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33820" windowHeight="20300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TurnoverImport" sheetId="5" r:id="rId1"/>

--- a/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/TurnoverImportForAggregated.xlsx
+++ b/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/TurnoverImportForAggregated.xlsx
@@ -8,15 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johan/src/estatio-ecp/estatio/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68307463-E30D-7B41-9AD5-949CA525EA62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978F18FA-62DF-E247-9C45-A73769B746A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33820" windowHeight="20300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TurnoverImport" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -766,7 +774,7 @@
   <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/TurnoverImportForAggregated.xlsx
+++ b/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/TurnoverImportForAggregated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johan/src/estatio-ecp/estatio/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978F18FA-62DF-E247-9C45-A73769B746A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C0C078-C9FB-134C-BDFB-B9286D60A481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33820" windowHeight="20300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="30">
   <si>
     <t>OXF-001</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>OXF-TOPMODEL-3</t>
-  </si>
-  <si>
-    <t>xxx</t>
   </si>
   <si>
     <t>yyy</t>
@@ -774,7 +771,7 @@
   <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1456,7 +1453,7 @@
         <v>120</v>
       </c>
       <c r="K18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L18" t="s">
         <v>3</v>
@@ -1689,9 +1686,6 @@
       <c r="J26" s="6">
         <v>0</v>
       </c>
-      <c r="K26" t="s">
-        <v>27</v>
-      </c>
       <c r="L26" t="s">
         <v>3</v>
       </c>
@@ -1780,7 +1774,7 @@
         <v>970</v>
       </c>
       <c r="K29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L29" t="s">
         <v>3</v>
@@ -2073,7 +2067,7 @@
         <v>532</v>
       </c>
       <c r="K39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L39" t="s">
         <v>3</v>

--- a/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/TurnoverImportForAggregated.xlsx
+++ b/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/TurnoverImportForAggregated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johan/src/estatio-ecp/estatio/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C0C078-C9FB-134C-BDFB-B9286D60A481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3125EE65-6590-2342-B41D-90A9E36F90AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33820" windowHeight="20300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="48">
   <si>
     <t>OXF-001</t>
   </si>
@@ -123,6 +123,60 @@
   </si>
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>tenancy enddate lease 3 = 2021-05-20</t>
+  </si>
+  <si>
+    <t>lease 2 starts at 2019-11-10</t>
+  </si>
+  <si>
+    <t>first aggregation date is 2019-11-1</t>
+  </si>
+  <si>
+    <t>so we expect extra aggregation dates to 2021-5-1 + 23 months = 2023-4-1</t>
+  </si>
+  <si>
+    <t>we expect the last aggregation date on 2020-4-1</t>
+  </si>
+  <si>
+    <t>lease 3 starts at 2020-5-20</t>
+  </si>
+  <si>
+    <t>first aggregation date is 2020-5-1</t>
+  </si>
+  <si>
+    <t>lease 1 starts at 2010-7-15</t>
+  </si>
+  <si>
+    <t>first aggregation date is 2010-7-1</t>
+  </si>
+  <si>
+    <t>first aggregation date we expect on 2017-4-1</t>
+  </si>
+  <si>
+    <t>last we expect on 2019-10-1 because next lease has agg date on 2019-11-1</t>
+  </si>
+  <si>
+    <t>the par config does not have influence, because this occ runs all the way</t>
+  </si>
+  <si>
+    <t>occ unit 001A (occ2Cfg) starts 2017-4-17 and ends 2019-11-9</t>
+  </si>
+  <si>
+    <t>occ unit 001A-PAR (occ3Cfg) starts 2017-4-17 and ends 2019-11-9</t>
+  </si>
+  <si>
+    <t>occ unit 001 starts on 2010-7-15 and ends 2017-4-16</t>
+  </si>
+  <si>
+    <t>first aggregation date we expect on 2010-7-1</t>
+  </si>
+  <si>
+    <t>last aggregation date we expect on 2019-10-1 because next lease kicks in at 2019-11-1 (BUT IS THIS WHAT THE USERS EXPECT?)</t>
   </si>
 </sst>
 </file>
@@ -173,12 +227,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -306,7 +366,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -316,6 +376,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="114">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -768,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -794,9 +856,10 @@
     <col min="16" max="16" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="62.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -851,8 +914,11 @@
       <c r="R1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="S1" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -887,8 +953,11 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="S2" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -923,8 +992,11 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="S3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -959,8 +1031,11 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="S4" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -995,8 +1070,11 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="S5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1032,7 +1110,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1068,7 +1146,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1104,7 +1182,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1142,7 +1220,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1179,8 +1257,11 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="S10" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1215,8 +1296,11 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="S11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1251,8 +1335,11 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="S12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1287,7 +1374,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1321,8 +1408,11 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="S14" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1356,8 +1446,11 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="S15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1391,8 +1484,11 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="S16" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1426,8 +1522,11 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="S17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1464,8 +1563,11 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1495,8 +1597,11 @@
         <v>3</v>
       </c>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S19" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1526,8 +1631,11 @@
         <v>3</v>
       </c>
       <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1553,8 +1661,11 @@
       <c r="L21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1582,8 +1693,11 @@
       <c r="L22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1609,7 +1723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1635,7 +1749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1661,7 +1775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1689,8 +1803,11 @@
       <c r="L26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S26" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1718,8 +1835,11 @@
       <c r="L27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1747,8 +1867,11 @@
       <c r="L28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1780,7 +1903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1809,7 +1932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1838,7 +1961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>2</v>
       </c>
